--- a/laboratory/example_control.xlsx
+++ b/laboratory/example_control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Google Drive\Sam_Jennings\PhD\Laboratory\new_lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1654095\Desktop\laboratory\laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>target_temp</t>
   </si>
@@ -39,9 +39,6 @@
     <t>offset</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>fo2_gas</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>target_temp in degrees C. hold_length in hours. heat_rate in degrees C/min. interval in mins</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>co2</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1335,7 @@
   <dimension ref="A1:IU25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1348,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1374,21 +1377,21 @@
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1397,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
@@ -1420,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -1443,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -1466,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
@@ -1489,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -1512,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
       </c>
       <c r="D9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -1535,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -1558,54 +1561,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>350</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>250</v>
-      </c>
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
